--- a/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Confusion_Matrix_Elements_Fold_44.xlsx
+++ b/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Confusion_Matrix_Elements_Fold_44.xlsx
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>

--- a/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Confusion_Matrix_Elements_Fold_44.xlsx
+++ b/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Confusion_Matrix_Elements_Fold_44.xlsx
@@ -420,10 +420,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,10 +437,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,10 +471,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,10 +488,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
